--- a/biology/Botanique/Anacardiaceae/Anacardiaceae.xlsx
+++ b/biology/Botanique/Anacardiaceae/Anacardiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Anacardiaceae (Anacardiacées) regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz, elle comprend environ 600 espèces réparties en 70 genres. Ce sont des arbres ou des arbustes des régions tempérées (bassin méditerranéen) ou tropicales.
 On peut remarquer les genres suivants :
@@ -516,12 +528,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Anacardium, qui, selon une hypothèse de Maarten et al., serait la forme latinisée d'un mot grec ancien ανακαρδιών / anacardiṓn [N.B. : terme inconnu de tous les dictionnaires de grec…], signifiant « une brindille de mûrier (a mulberry twig) »[2].
-Une autre hypothèse propose que le nom serait issu du sanskrit vrana, « blessure, plaie » et kārya, faire[3],  littéralement « faire une blessure », qui pourrait être une allusion au danger de la consommation d’une noix de cajou fraîche, astringente, irritante pour la bouche[2] et même toxique.
-Il a également été suggéré que le mot serait composé du grec ανά / ana, retourner, et καρδιά / kardia, cœur, en référence à la forme du fruit, dont le haut (la « pomme ») ressemble à un cœur inversé[2]. Cette forme en cœur est évoquée dans une flore médicale de 1814, mais avec une nuance,  ανά / ana « qui ressemble à », et καρδιά / kardia, cœur[4]. 
-Linné ne donne, pour Anacardium, qu’une série de noms plus ou moins vernaculaires (Anacardii alia species, acaiou, caschou, kapa-mava) [5] sans plus de précision.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Anacardium, qui, selon une hypothèse de Maarten et al., serait la forme latinisée d'un mot grec ancien ανακαρδιών / anacardiṓn [N.B. : terme inconnu de tous les dictionnaires de grec…], signifiant « une brindille de mûrier (a mulberry twig) ».
+Une autre hypothèse propose que le nom serait issu du sanskrit vrana, « blessure, plaie » et kārya, faire,  littéralement « faire une blessure », qui pourrait être une allusion au danger de la consommation d’une noix de cajou fraîche, astringente, irritante pour la bouche et même toxique.
+Il a également été suggéré que le mot serait composé du grec ανά / ana, retourner, et καρδιά / kardia, cœur, en référence à la forme du fruit, dont le haut (la « pomme ») ressemble à un cœur inversé. Cette forme en cœur est évoquée dans une flore médicale de 1814, mais avec une nuance,  ανά / ana « qui ressemble à », et καρδιά / kardia, cœur. 
+Linné ne donne, pour Anacardium, qu’une série de noms plus ou moins vernaculaires (Anacardii alia species, acaiou, caschou, kapa-mava)  sans plus de précision.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Blepharocarya (grands arbres endémiques d'Australie) était anciennement situé dans les Blépharocaryaceae,
 Deux genres d'arbustes Amphipterygium et Orthopterygium originaires d'Amérique centrale et du Pérou sont issus des Julianaceae,
@@ -582,9 +598,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (22 juin 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (22 juin 2010) :
 Actinocheita F.A.Barkley
 Amphipterygium Schiede ex Standl.
 Anacardium L.
@@ -655,7 +673,7 @@
 Tapirira Aublet
 Thyrsodium Salzm. ex Bentham
 Trichoscypha J. D. Hooker
-Selon NCBI  (22 juin 2010)[7] :
+Selon NCBI  (22 juin 2010) :
 Abrahamia
 Actinocheita
 Amphipterygium
@@ -704,7 +722,7 @@
 Thyrsodium
 Toxicodendron
 Trichoscypha
-Selon DELTA Angio           (22 juin 2010)[8] :
+Selon DELTA Angio           (22 juin 2010) :
 Actinocheita
 Anacardium
 Androtium
@@ -776,7 +794,7 @@
 Thyrsodium
 Toxicodendron
 Trichoscypha
-Selon ITIS      (22 juin 2010)[9] :
+Selon ITIS      (22 juin 2010) :
 Anacardium L.
 Buchanania Sprengel
 Campnospera Thwaites
